--- a/biology/Mycologie/Stigmina/Stigmina.xlsx
+++ b/biology/Mycologie/Stigmina/Stigmina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stigmina est un genre de champignons ascomycètes de la famille des Mycosphaerellaceae. Ce genre comprend de nombreuses espèces pathogènes des plantes, dont Stigmina carpophila responsable de la maladie criblée des arbres fruitiers.
 </t>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un genre anamorphe. Les conidiophores sont regroupés sur un stroma plus ou moins globuleux et superficiel (sporodochie), la conidiogenèse est holoblastique, les conidies sont colorées pluricellulaires et parfois muriformes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un genre anamorphe. Les conidiophores sont regroupés sur un stroma plus ou moins globuleux et superficiel (sporodochie), la conidiogenèse est holoblastique, les conidies sont colorées pluricellulaires et parfois muriformes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                  (18 juin 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                  (18 juin 2014) :
 Stigmina ahmadii
 Stigmina anacardii
 Stigmina angusiana
@@ -631,7 +647,7 @@
 Stigmina ulei
 Stigmina utahensis
 Stigmina verrucosa
-Selon Index Fungorum                                      (18 juin 2014)[3] :
+Selon Index Fungorum                                      (18 juin 2014) :
 Stigmina ahmadii B. Sutton 1973
 Stigmina anacardii (Syd.) M.B. Ellis 1959
 Stigmina angusiana M.B. Ellis 1963
